--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -557,9 +557,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="5.521159" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.612291" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="13.901844" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="5.375336" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.343439" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.839787" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
